--- a/exel/export.xlsx
+++ b/exel/export.xlsx
@@ -11,34 +11,80 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>sum</t>
-  </si>
-  <si>
-    <t>12311111111111</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+  <si>
+    <t>Клиент:</t>
   </si>
   <si>
     <t>client</t>
   </si>
   <si>
-    <t>nikolai</t>
+    <t>1175руб.</t>
+  </si>
+  <si>
+    <t>Дата заказа:</t>
+  </si>
+  <si>
+    <t>02.12.2021</t>
+  </si>
+  <si>
+    <t>927руб.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>MOLOKO</t>
+  </si>
+  <si>
+    <t>3руб.</t>
+  </si>
+  <si>
+    <t>15руб.</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>12руб.</t>
+  </si>
+  <si>
+    <t>912руб.</t>
+  </si>
+  <si>
+    <t>248руб.</t>
+  </si>
+  <si>
+    <t>27руб.</t>
+  </si>
+  <si>
+    <t>108руб.</t>
+  </si>
+  <si>
+    <t>hleb</t>
+  </si>
+  <si>
+    <t>28руб.</t>
+  </si>
+  <si>
+    <t>140руб.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -57,12 +103,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,45 +457,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="2" width="20" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>67580</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>2860</v>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
